--- a/data/trans_dic/P37A$medicoenfermedad-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoenfermedad-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05760103656629611</v>
+        <v>0.05745356619026477</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05634751096572107</v>
+        <v>0.05724758400047829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04542439572332688</v>
+        <v>0.04351687573038978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07457839497231217</v>
+        <v>0.07282710732368061</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03970602185557954</v>
+        <v>0.03889849897635232</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05196365218068678</v>
+        <v>0.05273104666084326</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03799085430686733</v>
+        <v>0.03770174261492078</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1037276001348326</v>
+        <v>0.1055908322963706</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05101365651002225</v>
+        <v>0.05060010396565368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05853177051913594</v>
+        <v>0.05895134278139189</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04536995036871872</v>
+        <v>0.04428081480465779</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09770022815682131</v>
+        <v>0.09767458015853279</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08794752807366026</v>
+        <v>0.08999225936684146</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09285756751425477</v>
+        <v>0.0929916099547172</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08000213949700133</v>
+        <v>0.07808445440913309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1173810426349831</v>
+        <v>0.1181780402851765</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06345292840203862</v>
+        <v>0.06256326886555551</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07942893679104215</v>
+        <v>0.08032105557224166</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06892714776989782</v>
+        <v>0.06732340797196232</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1383141487400955</v>
+        <v>0.1393145685037801</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06982111492562372</v>
+        <v>0.06893776541778288</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0805440964851276</v>
+        <v>0.08105713895387459</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06681972459653442</v>
+        <v>0.0667478162109625</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1237351823289532</v>
+        <v>0.1240644548475756</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.02192561159008089</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04600381891683524</v>
+        <v>0.04600381891683523</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01640106982465846</v>
@@ -833,7 +833,7 @@
         <v>0.02554229505428286</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04788543847521807</v>
+        <v>0.04788543847521806</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01128366488192958</v>
+        <v>0.01098436201134941</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0178552251492338</v>
+        <v>0.01825142611615131</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.021745250249049</v>
+        <v>0.0218849172012426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04133796335245129</v>
+        <v>0.04140691971029792</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01110383758766102</v>
+        <v>0.01094002077950981</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01714638683061394</v>
+        <v>0.01743354652940787</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01569768205279194</v>
+        <v>0.01557528891449557</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03948706635117939</v>
+        <v>0.03897991838030601</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01242521548902648</v>
+        <v>0.01225661128779476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01956662297853727</v>
+        <v>0.01966648457441268</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02052429140432818</v>
+        <v>0.02057585720969489</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04187772346387663</v>
+        <v>0.04229273005666382</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02346878094216474</v>
+        <v>0.02275742219894498</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03310136270868764</v>
+        <v>0.03315998066282175</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03721213111389508</v>
+        <v>0.03777725285325332</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06031250187333643</v>
+        <v>0.06004429362730963</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0234963662681248</v>
+        <v>0.0240078139771409</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03278769023747951</v>
+        <v>0.03306687132564458</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03004978564183245</v>
+        <v>0.02964166701066229</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0543092743439768</v>
+        <v>0.05415160216632837</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02143664245239843</v>
+        <v>0.02142798533501365</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03032001650122507</v>
+        <v>0.03023450285385505</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03108899164247069</v>
+        <v>0.03113139387343117</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05426941624477851</v>
+        <v>0.05417699489625556</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02163854240792308</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04478996354134667</v>
+        <v>0.04478996354134666</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.00570201672989089</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008912844016252862</v>
+        <v>0.00944931355248723</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003780524439704251</v>
+        <v>0.002308231799295529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01056001336620258</v>
+        <v>0.0108519539133338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03167131749915472</v>
+        <v>0.03190113706705175</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001668901064557896</v>
+        <v>0.001667404748460391</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01393643015753587</v>
+        <v>0.01463511394008159</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01284010780291206</v>
+        <v>0.0126027198499242</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03587886515734127</v>
+        <v>0.03658547514203003</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006890353014485171</v>
+        <v>0.006980546135351716</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01133578943770667</v>
+        <v>0.01090527505481179</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01430155682956509</v>
+        <v>0.01373867799624714</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0370122179896428</v>
+        <v>0.03791585803535966</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03835726790927105</v>
+        <v>0.03623094592049966</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02792977253421792</v>
+        <v>0.02901279336414451</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03866742968487311</v>
+        <v>0.03929121876353912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06087017711382669</v>
+        <v>0.06254825094110095</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01541231384744009</v>
+        <v>0.0152032403531466</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04714064773525006</v>
+        <v>0.04980313696035465</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04081695859713073</v>
+        <v>0.03749738457587607</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06222238582513661</v>
+        <v>0.06216007547398052</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02207406982614995</v>
+        <v>0.02216327937292064</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03312312011871574</v>
+        <v>0.03054976866157414</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0334106648511894</v>
+        <v>0.03333068845982373</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05702291698400454</v>
+        <v>0.05733648142604329</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03490629794229653</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05598401967029881</v>
+        <v>0.05598401967029882</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02786254673218759</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02871900396506423</v>
+        <v>0.0287844424725767</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02982103131885814</v>
+        <v>0.0310112772746373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02917630865739828</v>
+        <v>0.02903442949068679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04884186692172025</v>
+        <v>0.04906548516883493</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02290135013024068</v>
+        <v>0.02270688371739783</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03360048881474077</v>
+        <v>0.03308710531216669</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02457272048288021</v>
+        <v>0.02448981313195386</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05702195936242304</v>
+        <v>0.05629663862099182</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02677775560526552</v>
+        <v>0.0272110084014943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03357230182607192</v>
+        <v>0.03356578025033247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02843066698061789</v>
+        <v>0.02810216738710862</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05465937753423555</v>
+        <v>0.05489760931917425</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04084603057471007</v>
+        <v>0.04132856043287213</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04361459388209347</v>
+        <v>0.04446047571494173</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04224714369548624</v>
+        <v>0.04177888401310193</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06352048990867547</v>
+        <v>0.06373071082372196</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03417908653994418</v>
+        <v>0.03362272209657618</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04739930765600409</v>
+        <v>0.04679326896837253</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03685227001474929</v>
+        <v>0.03635766818187499</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06987783457109367</v>
+        <v>0.06931259276631749</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03513625489128989</v>
+        <v>0.0356365604755111</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04297290290496705</v>
+        <v>0.04344688220125423</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03678791698873658</v>
+        <v>0.03722446963467132</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06467982880691669</v>
+        <v>0.06440613284849762</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>59428</v>
+        <v>59276</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>54919</v>
+        <v>55796</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>34266</v>
+        <v>32827</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43146</v>
+        <v>42133</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>52218</v>
+        <v>51156</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>69517</v>
+        <v>70543</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>37788</v>
+        <v>37500</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>85268</v>
+        <v>86800</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>119721</v>
+        <v>118750</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>135351</v>
+        <v>136321</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>79352</v>
+        <v>77447</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>136836</v>
+        <v>136800</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>90737</v>
+        <v>92847</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>90503</v>
+        <v>90634</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>60349</v>
+        <v>58903</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67908</v>
+        <v>68369</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83448</v>
+        <v>82278</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>106260</v>
+        <v>107453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>68559</v>
+        <v>66964</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>113699</v>
+        <v>114522</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>163859</v>
+        <v>161786</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>186253</v>
+        <v>187440</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>116868</v>
+        <v>116742</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>173299</v>
+        <v>173761</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19108</v>
+        <v>18601</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>35067</v>
+        <v>35845</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45152</v>
+        <v>45442</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>92207</v>
+        <v>92361</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17629</v>
+        <v>17369</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>30140</v>
+        <v>30645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>31212</v>
+        <v>30968</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>85742</v>
+        <v>84641</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>40768</v>
+        <v>40215</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>72822</v>
+        <v>73194</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>83425</v>
+        <v>83634</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>184344</v>
+        <v>186171</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39742</v>
+        <v>38538</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>65010</v>
+        <v>65125</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77267</v>
+        <v>78440</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>134531</v>
+        <v>133933</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37305</v>
+        <v>38117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>57634</v>
+        <v>58125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>59748</v>
+        <v>58937</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>117927</v>
+        <v>117584</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>70335</v>
+        <v>70307</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>112844</v>
+        <v>112526</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>126367</v>
+        <v>126539</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>238892</v>
+        <v>238485</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4915</v>
+        <v>5210</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1819</v>
+        <v>1111</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5775</v>
+        <v>5935</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22537</v>
+        <v>22700</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6392</v>
+        <v>6712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7051</v>
+        <v>6921</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>26367</v>
+        <v>26886</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7082</v>
+        <v>7175</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10654</v>
+        <v>10249</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15675</v>
+        <v>15058</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>53537</v>
+        <v>54844</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21151</v>
+        <v>19978</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13439</v>
+        <v>13960</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21147</v>
+        <v>21488</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43314</v>
+        <v>44509</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7343</v>
+        <v>7243</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21620</v>
+        <v>22841</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22414</v>
+        <v>20591</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45726</v>
+        <v>45680</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22688</v>
+        <v>22780</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31130</v>
+        <v>28711</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>36619</v>
+        <v>36531</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>82482</v>
+        <v>82935</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>94099</v>
+        <v>94313</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>101981</v>
+        <v>106052</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>98546</v>
+        <v>98067</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>171957</v>
+        <v>172744</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>77388</v>
+        <v>76731</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>119424</v>
+        <v>117599</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>86793</v>
+        <v>86500</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>212595</v>
+        <v>209891</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>178226</v>
+        <v>181109</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>234134</v>
+        <v>234088</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>196448</v>
+        <v>194178</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>396225</v>
+        <v>397952</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>133834</v>
+        <v>135415</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>149152</v>
+        <v>152045</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>142695</v>
+        <v>141113</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>223636</v>
+        <v>224376</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>115498</v>
+        <v>113618</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>168468</v>
+        <v>166314</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>130166</v>
+        <v>128419</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>260526</v>
+        <v>258419</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>233858</v>
+        <v>237188</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>299694</v>
+        <v>302999</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>254194</v>
+        <v>257211</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>468863</v>
+        <v>466879</v>
       </c>
     </row>
     <row r="20">
